--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2016.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2016.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158580813684628</v>
+        <v>1.146172523498535</v>
       </c>
       <c r="B1">
-        <v>2.330113175351699</v>
+        <v>2.79360294342041</v>
       </c>
       <c r="C1">
-        <v>7.526425803039414</v>
+        <v>6.898158550262451</v>
       </c>
       <c r="D1">
-        <v>2.406676987653</v>
+        <v>1.989449501037598</v>
       </c>
       <c r="E1">
-        <v>1.225171905542591</v>
+        <v>1.047636985778809</v>
       </c>
     </row>
   </sheetData>
